--- a/www/IndicatorsPerCountry/BosniaandHerzegovina_RegulationofChiefExecutiveRecruitmentXRREG_TerritorialRef_1992_2012_CCode_70.xlsx
+++ b/www/IndicatorsPerCountry/BosniaandHerzegovina_RegulationofChiefExecutiveRecruitmentXRREG_TerritorialRef_1992_2012_CCode_70.xlsx
@@ -69,13 +69,13 @@
     <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Regulation of Chief Executive Recruitment (XRREG). http://hdl.handle.net/10622/IHPUXP, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/BosniaandHerzegovina_RegulationofChiefExecutiveRecruitmentXRREG_TerritorialRef_1992_2012_CCode_70.xlsx
+++ b/www/IndicatorsPerCountry/BosniaandHerzegovina_RegulationofChiefExecutiveRecruitmentXRREG_TerritorialRef_1992_2012_CCode_70.xlsx
@@ -66,7 +66,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/BosniaandHerzegovina_RegulationofChiefExecutiveRecruitmentXRREG_TerritorialRef_1992_2012_CCode_70.xlsx</t>
   </si>
   <si>
-    <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Regulation of Chief Executive Recruitment (XRREG). http://hdl.handle.net/10622/IHPUXP, accessed via the Clio Infra website.</t>
+    <t>Marshall, M. G., T. R. Gurr, and K. Jaggers (2015). Regulation of Chief Executive Recruitment (XRREG). http://hdl.handle.net/10622/IHPUXP, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.xml</t>
